--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146627.046339026</v>
+        <v>178542.2096037847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.934248445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8374431.90304924</v>
+        <v>8405997.561891546</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>188.3716946253685</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.7934525668267</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>231.4320347280874</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>142.0184881503152</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>100.4586895118039</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>129.0632185641022</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>14.14416275345371</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>130.3853151429592</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>347.6160279099795</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>212.3254548275837</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>78.19547133389413</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.4380635245692</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>365.2190823866821</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253733</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1670,10 +1670,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>146.9399060518606</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>136.1921297287207</v>
       </c>
     </row>
     <row r="15">
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>56.72042565247654</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1816,13 +1816,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344286</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>381.4061090983701</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>136.6047512078537</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>50.38971918733571</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>275.2704214118789</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>71.43430199953282</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>31.24391673888095</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>122.4914619056499</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888186</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,13 +2959,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>139.7824903885278</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855486</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>205.9320983586117</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3317,7 +3317,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3566,7 +3566,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864833</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1166.995347559532</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>728.8528747429552</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>292.9430899173997</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>263.2087491160989</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>239.3817235657107</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>239.3817235657107</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489133</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797696</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756291</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2235.297000382387</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1976.074697699403</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.45774763323</v>
       </c>
       <c r="W2" t="n">
-        <v>988.6088745483262</v>
+        <v>1612.642697084667</v>
       </c>
       <c r="X2" t="n">
-        <v>569.4664111276369</v>
+        <v>1193.500233663978</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>1189.254514004036</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414798</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246753</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.611864851629</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677906</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397448</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064456</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768569</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.712964807981</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031422</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420221</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212429</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.3658326657497</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8041211489747</v>
+        <v>955.6037336452933</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>789.7257408468161</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>619.9677370975533</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593094</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851371</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755116</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>200.042757342374</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>618.2526391103351</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1077.736506291248</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448893</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674674</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645016</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.94640621472</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2274.705037512716</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>2028.825591091172</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1750.392590344277</v>
       </c>
       <c r="V4" t="n">
-        <v>1675.765608785789</v>
+        <v>1463.437082214707</v>
       </c>
       <c r="W4" t="n">
-        <v>1441.995876737216</v>
+        <v>1463.437082214707</v>
       </c>
       <c r="X4" t="n">
-        <v>1196.604122070629</v>
+        <v>1463.437082214707</v>
       </c>
       <c r="Y4" t="n">
-        <v>969.1844513847368</v>
+        <v>1319.984063881056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1030.653802879758</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C5" t="n">
-        <v>996.551734103585</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D5" t="n">
-        <v>964.6823533184336</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2235.974838049816</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>2235.159787501254</v>
       </c>
       <c r="X5" t="n">
-        <v>1461.199093024608</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y5" t="n">
-        <v>1456.953373364666</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>947.1238364150125</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>774.5621248982375</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>67.68824961292523</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>67.68824961292523</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1138.942455134</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1138.942455134</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.942455134</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1138.942455134</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1138.942455134</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>849.8920993415734</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>815.7900305654008</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>783.9206497802494</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>350.1459049385446</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>326.3188793881563</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>326.3188793881563</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851263</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>304.2846042752933</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>304.2846042752933</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>304.2846042752933</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>304.2846042752933</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743871</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109468</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1754.944899109468</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1495.722596426485</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1495.722596426485</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1090.867141837518</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>876.3969854460197</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>872.1512657860771</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543888</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543888</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543888</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543888</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>509.9106585473262</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>509.9106585473262</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>509.9106585473262</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>509.9106585473262</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676351</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934628</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851263</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851263</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264737</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255674</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683212</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908993</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925631</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1592.717326504086</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1314.284325757192</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1027.328817627622</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>755.3024132139137</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>509.9106585473262</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>509.9106585473262</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2522.958394689264</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D11" t="n">
         <v>1648.906137047132</v>
@@ -5027,64 +5027,64 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146349</v>
       </c>
       <c r="G11" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892153</v>
+        <v>1171.795942933974</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940406</v>
+        <v>2328.843778144525</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>3454.574761580972</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>4434.754428151279</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4434.754428151279</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.6447693027</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4493.92465755661</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4131.307707490437</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3726.45225290147</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,10 +5112,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902376</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="14">
@@ -5318,7 +5318,7 @@
         <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
         <v>2949.674754547032</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1093.185322228297</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>920.6236107115219</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>754.7456179130445</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
-        <v>584.9876141637818</v>
+        <v>667.5964292284816</v>
       </c>
       <c r="F16" t="n">
-        <v>408.280560125538</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6892851513657</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
         <v>185.3959259064399</v>
@@ -5464,22 +5464,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2399.406093907741</v>
       </c>
       <c r="V16" t="n">
-        <v>2029.841770713472</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W16" t="n">
-        <v>1757.815366299763</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X16" t="n">
-        <v>1512.423611633176</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y16" t="n">
-        <v>1285.003940947284</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2472.724095295529</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2034.581622478952</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5525,16 +5525,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4493.924657556612</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3726.452252901472</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X17" t="n">
-        <v>3307.309789480783</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y17" t="n">
-        <v>2899.023665780436</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987272</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819521</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834749</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342121</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959684</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111518</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2662.49688033408</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2416.617433912536</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2138.184433165641</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1851.228925036072</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1579.202520622363</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1333.810765955776</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177142</v>
+        <v>1106.391095269884</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2511.87917085155</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>2073.736698034973</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1637.826913209418</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.052168367713</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>776.1847387769209</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
-        <v>374.7869074001848</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263768</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097164</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4764.64297345017</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="U20" t="n">
-        <v>4533.079733112634</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V20" t="n">
-        <v>4170.462783046461</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W20" t="n">
-        <v>3765.607328457494</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X20" t="n">
-        <v>3346.464865036805</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y20" t="n">
-        <v>2938.178741336458</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.134188067672</v>
+        <v>806.2298140987269</v>
       </c>
       <c r="C22" t="n">
-        <v>914.5724765508968</v>
+        <v>806.2298140987269</v>
       </c>
       <c r="D22" t="n">
-        <v>748.6944837524195</v>
+        <v>640.3518213002496</v>
       </c>
       <c r="E22" t="n">
-        <v>578.9364800031568</v>
+        <v>470.5938175509868</v>
       </c>
       <c r="F22" t="n">
-        <v>402.229425964913</v>
+        <v>293.886763512743</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907407</v>
+        <v>128.2954885385707</v>
       </c>
       <c r="H22" t="n">
         <v>96.73597668111518</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S22" t="n">
-        <v>2713.395586583915</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2467.51614016237</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2189.083139415475</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V22" t="n">
-        <v>1902.127631285905</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1630.101226872197</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X22" t="n">
-        <v>1506.372477472551</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.952806786659</v>
+        <v>998.048432817714</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C28" t="n">
         <v>780.1951658309357</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.146432354979</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>884.5847208382042</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>718.7067280397268</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>548.9487242904642</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6652,19 +6652,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1476.384721759858</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1248.965051073967</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>868.8551150562605</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577832</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2265.02878318778</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6962,7 +6962,7 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731399</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856333</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7184,31 +7184,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,7 +7333,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7415,37 +7415,37 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
         <v>267.852115244952</v>
@@ -7603,7 +7603,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W43" t="n">
         <v>1617.386921419177</v>
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7652,25 +7652,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722817</v>
@@ -7691,7 +7691,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7804,13 +7804,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7840,7 +7840,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
         <v>1617.386921419177</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805804495</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854555</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274616</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>321.9475215913873</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>270.2148169866472</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428069</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8690,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>309.606269745711</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>235.2427688398193</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,13 +9407,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>267.5985112554899</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>49.73195639980031</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>90.22000922290053</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>268.0111327346224</v>
       </c>
     </row>
     <row r="15">
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>81.78272691405269</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>122.4480280049972</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>50.14457787892985</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>267.5985112554894</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>10.96843159933701</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>11.38105307846854</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>107.2592358276483</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>35.1574931093335</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>69.71657238081406</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>714248.5658370268</v>
+        <v>723967.8309887142</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>714248.5658370268</v>
+        <v>726720.0678946942</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>716061.3706188941</v>
+        <v>726720.0678946942</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>709016.4800112854</v>
+        <v>709016.480011285</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738937.7856736745</v>
+        <v>738937.7856736744</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738937.7856736745</v>
+        <v>738937.7856736744</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738937.7856736745</v>
+        <v>738937.7856736744</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26320,13 @@
         <v>254669.9769479441</v>
       </c>
       <c r="E2" t="n">
-        <v>240123.8515365463</v>
+        <v>240123.8515365462</v>
       </c>
       <c r="F2" t="n">
         <v>240123.8515365463</v>
       </c>
       <c r="G2" t="n">
-        <v>240123.8515365463</v>
+        <v>240123.8515365464</v>
       </c>
       <c r="H2" t="n">
         <v>240123.8515365463</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039038</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739058</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485614</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784446</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.3820999505</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.5929483865</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856657</v>
+        <v>65247.19221856653</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="G4" t="n">
         <v>65247.19221856655</v>
@@ -26445,19 +26445,19 @@
         <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814208</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="N5" t="n">
-        <v>77718.23860579252</v>
-      </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146774.9380955038</v>
+        <v>-188159.7979140523</v>
       </c>
       <c r="C6" t="n">
-        <v>-4583.637435793869</v>
+        <v>6480.266759606762</v>
       </c>
       <c r="D6" t="n">
-        <v>-11436.69362091426</v>
+        <v>23820.81113351254</v>
       </c>
       <c r="E6" t="n">
-        <v>-122441.9767116956</v>
+        <v>-60454.31672457889</v>
       </c>
       <c r="F6" t="n">
-        <v>101357.3170403322</v>
+        <v>101280.7584855353</v>
       </c>
       <c r="G6" t="n">
-        <v>101357.3170403322</v>
+        <v>101280.7584855355</v>
       </c>
       <c r="H6" t="n">
-        <v>101357.3170403322</v>
+        <v>101280.7584855354</v>
       </c>
       <c r="I6" t="n">
-        <v>86173.69993727753</v>
+        <v>86150.4755978949</v>
       </c>
       <c r="J6" t="n">
-        <v>-6476.049774873129</v>
+        <v>-56092.63825487954</v>
       </c>
       <c r="K6" t="n">
-        <v>104538.415570117</v>
+        <v>90701.18266288997</v>
       </c>
       <c r="L6" t="n">
-        <v>95590.80448160757</v>
+        <v>104515.1912307344</v>
       </c>
       <c r="M6" t="n">
-        <v>-82252.571040351</v>
+        <v>-30474.75338226893</v>
       </c>
       <c r="N6" t="n">
-        <v>104538.4155701172</v>
+        <v>104515.1912307344</v>
       </c>
       <c r="O6" t="n">
-        <v>104538.4155701171</v>
+        <v>104515.1912307345</v>
       </c>
       <c r="P6" t="n">
-        <v>104538.4155701171</v>
+        <v>104515.1912307344</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973051996</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051996</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051996</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>97.86715838584738</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.40980989651644</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>37.87410564148399</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>83.12698582871764</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>328.9783078814838</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>229.9275620014095</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>73.62918697961771</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>145.2633555964665</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>86.14502017843142</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>202.6255839588987</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>96.7445121639672</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805804495</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854555</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274616</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>321.9475215913873</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>270.2148169866472</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428069</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>309.606269745711</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>235.2427688398193</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36127,13 +36127,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37783,13 +37783,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38020,13 +38020,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,19 +38181,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
